--- a/graph_generation/results_pathCompare/gpt3.5/level_5/k_3.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_5/k_3.xlsx
@@ -76,26 +76,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0
+ F 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -141,29 +141,28 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -209,22 +208,24 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 0 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 1 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 1 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 1 0 0
- I 0 0 0 0 0 1 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 1 0 1 0 1 1 0
- K 0 0 0 0 0 0 0 1 0 1 0 0 1
- L 0 0 0 0 0 0 0 0 0 1 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 1 1 0
-Let's list down all the possible paths from node A to node M, and compare to get the answer.
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0
+ I 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -277,26 +278,26 @@
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
  H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -342,24 +343,25 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+What is the shortest path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -413,25 +415,25 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -477,26 +479,29 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node M? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M
- A 0 1 0 1 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 1 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 1 0 0 0 0 0 0
- E 0 1 0 1 0 0 0 1 0 0 0 0 0
- F 0 0 1 0 0 0 0 0 1 0 0 0 0
- G 0 0 0 1 0 0 0 0 0 1 0 0 0
- H 0 0 0 0 1 0 0 0 1 0 1 0 0
- I 0 0 0 0 0 1 0 1 0 0 0 1 0
- J 0 0 0 0 0 0 1 0 0 0 1 0 0
- K 0 0 0 0 0 0 0 1 0 1 0 1 0
- L 0 0 0 0 0 0 0 0 1 0 1 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 1 0
-Let's list down all the possible paths from node A to node M, and compare to get the answer.
+What is the shortest path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -542,29 +547,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+What is the shortest path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 1 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 0 1 0 0 0 1 0 1 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 1
+ L 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ M 0 0 0 0 0 0 0 0 0 1 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+Let's list down all the possible paths from node A to node N, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -610,24 +613,25 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
+What is the shortest path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -679,174 +683,296 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; M</t>
+    <t>A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; K -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; G -&gt; J -&gt; K -&gt; L -&gt; M</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O</t>
-  </si>
-  <si>
-    <t>Possible paths from A to O:
-1. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O
-2. A -&gt; E -&gt; F -&gt; G -&gt; N -&gt; O
-3. A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O
-4. A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O
-5. A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; N -&gt; O
-6. A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; L -&gt; O
-7. A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; L -&gt; H -&gt; O
-Comparing the lengths of these paths, we can see that the shortest path from node A to node O is:
-A -&gt; E -&gt; F -&gt; J -&gt; M -&gt; L -&gt; O</t>
-  </si>
-  <si>
-    <t>One possible path from node A to node P is: A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (length = 5)
-Another possible path is: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (length = 5)
-Yet another possible path is: A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; P (length = 5)
-Among these paths, the shortest path is A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P with a length of 5.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node M:
-1. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; M
-2. A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; M
-Comparing the two paths, we can see that the shortest path from node A to node M is:
-A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; M</t>
+    <t>Possible Paths:
+1. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O
+2. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O
+3. A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O
+4. A -&gt; B -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O
+5. A -&gt; B -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O
+6. A -&gt; B -&gt; E -&gt; N -&gt; O
+7. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O
+8. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O
+9. A -&gt; B -&gt; C -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O
+10. A -&gt; B -&gt; C -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O
+11. A -&gt; B -&gt; C -&gt; N -&gt; O
+12. A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O
+13. A -&gt; D -&gt; H -&gt; I -&gt; J -&gt; N -&gt; O
+14. A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O
+15. A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O
+16. A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; O
+17. A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O
+By comparing the number of nodes in each path, we can see that shortest path from node A to node O is: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>Here are all the possible paths from node A to node O:
+1) A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 7)
+2) A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 6)
+3) A -&gt; D -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O (Cost: 6)
+4) A -&gt; D -&gt; E -&gt; F -&gt; K -&gt; O (Cost: 5)
+5) A -&gt; D -&gt; E -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 6)
+6) A -&gt; D -&gt; E -&gt; G -&gt; K -&gt; O (Cost: 5)
+7) A -&gt; D -&gt; E -&gt; J -&gt; K -&gt; O (Cost: 5)
+8) A -&gt; D -&gt; E -&gt; K -&gt; O (Cost: 4)
+9) A -&gt; D -&gt; F -&gt; E -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 7)
+10) A -&gt; D -&gt; F -&gt; E -&gt; G -&gt; K -&gt; O (Cost: 6)
+11) A -&gt; D -&gt; F -&gt; E -&gt; J -&gt; K -&gt; O (Cost: 6)
+12) A -&gt; D -&gt; F -&gt; E -&gt; K -&gt; O (Cost: 5)
+13) A -&gt; D -&gt; F -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 6)
+14) A -&gt; D -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 5)
+15) A -&gt; D -&gt; F -&gt; J -&gt; K -&gt; O (Cost: 5)
+16) A -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 4)
+17) A -&gt; E -&gt; D -&gt; F -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 8)
+18) A -&gt; E -&gt; D -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 7)
+19) A -&gt; E -&gt; D -&gt; F -&gt; J -&gt; K -&gt; O (Cost: 7)
+20) A -&gt; E -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 6)
+21) A -&gt; E -&gt; D -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 7)
+22) A -&gt; E -&gt; D -&gt; G -&gt; K -&gt; O (Cost: 6)
+23) A -&gt; E -&gt; D -&gt; J -&gt; K -&gt; O (Cost: 6)
+24) A -&gt; E -&gt; D -&gt; K -&gt; O (Cost: 5)
+25) A -&gt; E -&gt; F -&gt; D -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 8)
+26) A -&gt; E -&gt; F -&gt; D -&gt; G -&gt; K -&gt; O (Cost: 7)
+27) A -&gt; E -&gt; F -&gt; D -&gt; J -&gt; K -&gt; O (Cost: 7)
+28) A -&gt; E -&gt; F -&gt; D -&gt; K -&gt; O (Cost: 6)
+29) A -&gt; E -&gt; F -&gt; G -&gt; D -&gt; J -&gt; K -&gt; O (Cost: 8)
+30) A -&gt; E -&gt; F -&gt; G -&gt; D -&gt; K -&gt; O (Cost: 7)
+31) A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; D -&gt; K -&gt; O (Cost: 8)
+32) A -&gt; E -&gt; F -&gt; G -&gt; J -&gt; K -&gt; D -&gt; O (Cost: 8)
+33) A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; D -&gt; J -&gt; O (Cost: 8)
+34) A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; J -&gt; D -&gt; O (Cost: 8)
+35) A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 6)
+36) A -&gt; E -&gt; F -&gt; J -&gt; D -&gt; K -&gt; O (Cost: 7)
+37) A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; D -&gt; O (Cost: 7)
+38) A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O (Cost: 6)
+39) A -&gt; E -&gt; F -&gt; K -&gt; D -&gt; J -&gt; O (Cost: 7)
+40) A -&gt; E -&gt; F -&gt; K -&gt; J -&gt; D -&gt; O (Cost: 7)
+41) A -&gt; E -&gt; F -&gt; K -&gt; O (Cost: 6)
+42) A -&gt; E -&gt; G -&gt; D -&gt; F -&gt; J -&gt; K -&gt; O (Cost: 8)
+43) A -&gt; E -&gt; G -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 7)
+44) A -&gt; E -&gt; G -&gt; D -&gt; J -&gt; K -&gt; O (Cost: 7)
+45) A -&gt; E -&gt; G -&gt; D -&gt; K -&gt; O (Cost: 6)
+46) A -&gt; E -&gt; G -&gt; F -&gt; D -&gt; J -&gt; K -&gt; O (Cost: 8)
+47) A -&gt; E -&gt; G -&gt; F -&gt; D -&gt; K -&gt; O (Cost: 7)
+48) A -&gt; E -&gt; G -&gt; F -&gt; J -&gt; D -&gt; K -&gt; O (Cost: 8)
+49) A -&gt; E -&gt; G -&gt; F -&gt; J -&gt; K -&gt; D -&gt; O (Cost: 8)
+50) A -&gt; E -&gt; G -&gt; F -&gt; K -&gt; D -&gt; J -&gt; O (Cost: 8)
+51) A -&gt; E -&gt; G -&gt; F -&gt; K -&gt; J -&gt; D -&gt; O (Cost: 8)
+52) A -&gt; E -&gt; G -&gt; F -&gt; K -&gt; O (Cost: 6)
+53) A -&gt; E -&gt; G -&gt; J -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 8)
+54) A -&gt; E -&gt; G -&gt; J -&gt; F -&gt; D -&gt; K -&gt; O (Cost: 8)
+55) A -&gt; E -&gt; G -&gt; J -&gt; F -&gt; K -&gt; D -&gt; O (Cost: 8)
+56) A -&gt; E -&gt; G -&gt; J -&gt; F -&gt; K -&gt; O (Cost: 7)
+57) A -&gt; E -&gt; G -&gt; J -&gt; K -&gt; D -&gt; F -&gt; O (Cost: 9)
+58) A -&gt; E -&gt; G -&gt; J -&gt; K -&gt; F -&gt; D -&gt; O (Cost: 9)
+59) A -&gt; E -&gt; G -&gt; J -&gt; K -&gt; F -&gt; O (Cost: 8)
+60) A -&gt; E -&gt; G -&gt; J -&gt; K -&gt; O (Cost: 7)
+61) A -&gt; E -&gt; G -&gt; K -&gt; D -&gt; F -&gt; J -&gt; O (Cost: 9)
+62) A -&gt; E -&gt; G -&gt; K -&gt; D -&gt; J -&gt; F -&gt; O (Cost: 9)
+63) A -&gt; E -&gt; G -&gt; K -&gt; D -&gt; J -&gt; O (Cost: 8)
+64) A -&gt; E -&gt; G -&gt; K -&gt; D -&gt; F -&gt; O (Cost: 8)
+65) A -&gt; E -&gt; G -&gt; K -&gt; F -&gt; D -&gt; J -&gt; O (Cost: 9)
+66) A -&gt; E -&gt; G -&gt; K -&gt; F -&gt; J -&gt; D -&gt; O (Cost: 9)
+67) A -&gt; E -&gt; G -&gt; K -&gt; F -&gt; J -&gt; O (Cost: 8)
+68) A -&gt; E -&gt; G -&gt; K -&gt; F -&gt; O (Cost: 7)
+69) A -&gt; E -&gt; J -&gt; D -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 8)
+70) A -&gt; E -&gt; J -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 7)
+71) A -&gt; E -&gt; J -&gt; D -&gt; G -&gt; K -&gt; O (Cost: 7)
+72) A -&gt; E -&gt; J -&gt; D -&gt; K -&gt; O (Cost: 6)
+73) A -&gt; E -&gt; J -&gt; F -&gt; D -&gt; G -&gt; K -&gt; O (Cost: 8)
+74) A -&gt; E -&gt; J -&gt; F -&gt; D -&gt; K -&gt; O (Cost: 7)
+75) A -&gt; E -&gt; J -&gt; F -&gt; G -&gt; D -&gt; K -&gt; O (Cost: 8)
+76) A -&gt; E -&gt; J -&gt; F -&gt; G -&gt; K -&gt; D -&gt; O (Cost: 8)
+77) A -&gt; E -&gt; J -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 7)
+78) A -&gt; E -&gt; J -&gt; F -&gt; K -&gt; D -&gt; G -&gt; O (Cost: 8)
+79) A -&gt; E -&gt; J -&gt; F -&gt; K -&gt; G -&gt; D -&gt; O (Cost: 8)
+80) A -&gt; E -&gt; J -&gt; F -&gt; K -&gt; G -&gt; O (Cost: 7)
+81) A -&gt; E -&gt; J -&gt; F -&gt; K -&gt; O (Cost: 6)
+82) A -&gt; E -&gt; J -&gt; G -&gt; D -&gt; F -&gt; K -&gt; O (Cost: 8)
+83) A -&gt; E -&gt; J -&gt; G -&gt; D -&gt; K -&gt; F -&gt; O (Cost: 8)
+84) A -&gt; E -&gt; J -&gt; G -&gt; D -&gt; K -&gt; O (Cost: 7)
+85) A -&gt; E -&gt; J -&gt; G -&gt; F -&gt; D -&gt; K -&gt; O (Cost: 8)
+86) A -&gt; E -&gt; J -&gt; G -&gt; F -&gt; K -&gt; D -&gt; O (Cost: 8)
+87) A -&gt; E -&gt; J -&gt; G -&gt; F -&gt; K -&gt; O (Cost: 7)
+88) A -&gt; E -&gt; J -&gt; G -&gt; K -&gt; D -&gt; F -&gt; O (Cost: 8)
+89) A -&gt; E -&gt; J -&gt; G -&gt; K -&gt; F -&gt; D -&gt; O (Cost: 8)
+90) A -&gt; E -&gt; J -&gt; G -&gt; K -&gt; F -&gt; O (Cost: 7)
+91) A -&gt; E -&gt; J -&gt; G -&gt; K -&gt; O (Cost: 6)
+92) A -&gt; E -&gt; J -&gt; K -&gt; D -&gt; F -&gt; G -&gt; O (Cost: 9)
+93) A -&gt; E -&gt; J -&gt; K -&gt; D -&gt; G -&gt; F -&gt; O (Cost: 9)
+94) A -&gt; E -&gt; J -&gt; K -&gt; D -&gt; G -&gt; O (Cost: 8)
+95) A -&gt; E -&gt; J -&gt; K -&gt; D -&gt; F -&gt; O (Cost: 8)
+96) A -&gt; E -&gt; J -&gt; K -&gt; F -&gt; D -&gt; G -&gt; O (Cost: 9)
+97) A -&gt; E -&gt; J -&gt; K -&gt; F -&gt; G -&gt; D -&gt; O (Cost: 9)
+98) A -&gt; E -&gt; J -&gt; K -&gt; F -&gt; G -&gt; O (Cost: 8)
+99) A -&gt; E -&gt; J -&gt; K -&gt; F -&gt; O (Cost: 7)
+100) A -&gt; E -&gt; K -&gt; D -&gt; F -&gt; G -&gt; J -&gt; O (Cost: 9)
+101) A -&gt; E -&gt; K -&gt; D -&gt; F -&gt; J -&gt; G -&gt; O (Cost: 9)
+102) A -&gt; E -&gt; K -&gt; D -&gt; F -&gt; J -&gt; O (Cost: 8)
+103) A -&gt; E -&gt; K -&gt; D -&gt; G -&gt; F -&gt; J -&gt; O (Cost: 9)
+104) A -&gt; E -&gt; K -&gt; D -&gt; G -&gt; J -&gt; F -&gt; O (Cost: 9)
+105) A -&gt; E -&gt; K -&gt; D -&gt; G -&gt; J -&gt; O (Cost: 8)
+106) A -&gt; E -&gt; K -&gt; D -&gt; G -&gt; F -&gt; O (Cost: 8)
+107) A -&gt; E -&gt; K -&gt; D -&gt; J -&gt; F -&gt; G -&gt; O (Cost: 9)
+108) A -&gt; E -&gt; K -&gt; D -&gt; J -&gt; G -&gt; F -&gt; O (Cost: 9)
+109) A -&gt; E -&gt; K -&gt; D -&gt; J -&gt; G -&gt; O (Cost: 8)
+110) A -&gt; E -&gt; K -&gt; D -&gt; J -&gt; F -&gt; O (Cost: 8)
+111) A -&gt; E -&gt; K -&gt; D -&gt; O (Cost: 5)
+112) A -&gt; E -&gt; K -&gt; F -&gt; D -&gt; G -&gt; J -&gt; O (Cost: 9)
+113) A -&gt; E -&gt; K -&gt; F -&gt; D -&gt; J -&gt; G -&gt; O (Cost: 9)
+114) A -&gt; E</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node O, we can use a breadth-first search (BFS) algorithm. Here are the possible paths from A to O:
+1. A-&gt;B-&gt;C-&gt;D-&gt;G-&gt;H-&gt;I-&gt;O
+2. A-&gt;B-&gt;C-&gt;D-&gt;G-&gt;H-&gt;O
+3. A-&gt;B-&gt;C-&gt;D-&gt;G-&gt;O
+4. A-&gt;B-&gt;C-&gt;F-&gt;I-&gt;O
+5. A-&gt;B-&gt;C-&gt;F-&gt;O
+6. A-&gt;B-&gt;E-&gt;D-&gt;G-&gt;H-&gt;I-&gt;O
+7. A-&gt;B-&gt;E-&gt;D-&gt;G-&gt;H-&gt;O
+8. A-&gt;B-&gt;E-&gt;D-&gt;G-&gt;O
+9. A-&gt;B-&gt;E-&gt;F-&gt;I-&gt;O
+10. A-&gt;B-&gt;E-&gt;F-&gt;O
+11. A-&gt;B-&gt;E-&gt;H-&gt;I-&gt;O
+12. A-&gt;B-&gt;E-&gt;H-&gt;O
+13. A-&gt;E-&gt;D-&gt;G-&gt;H-&gt;I-&gt;O
+14. A-&gt;E-&gt;D-&gt;G-&gt;H-&gt;O
+15. A-&gt;E-&gt;D-&gt;G-&gt;O
+16. A-&gt;E-&gt;F-&gt;I-&gt;O
+17. A-&gt;E-&gt;F-&gt;O
+18. A-&gt;E-&gt;H-&gt;I-&gt;O
+19. A-&gt;E-&gt;H-&gt;O
+20. A-&gt;F-&gt;I-&gt;O
+21. A-&gt;F-&gt;O
+It can be observed that path number 3 (A-&gt;B-&gt;C-&gt;D-&gt;G-&gt;O) has the shortest length, and its length is 5. Therefore, the shortest path from node A to node O is A-&gt;B-&gt;C-&gt;D-&gt;G-&gt;O.</t>
+  </si>
+  <si>
+    <t>There are several possible paths from node A to node P:
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 6)
+2. A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P (Cost: 6)
+3. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (Cost: 6)
+4. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P (Cost: 7)
+5. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P (Cost: 6)
+6. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; D -&gt; C -&gt; B -&gt; P (Cost: 8)
+7. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; D -&gt; C -&gt; P (Cost: 7)
+8. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; M -&gt; N -&gt; P (Cost: 8)
+9. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; M -&gt; P (Cost: 7)
+10. A -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; P (Cost: 6)
+The shortest path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P with a cost of 6.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
-2. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P
-3. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; K -&gt; L -&gt; P
-4. A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P
-The shortest path from A to P is:
-A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>Possible paths:
-1. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; K -&gt; L -&gt; O
-2. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; K -&gt; M -&gt; N -&gt; O
-3. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O
-4. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; K -&gt; L -&gt; O
-5. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; L -&gt; O
-6. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; K -&gt; O
-7. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; O
-8. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O
-9. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; K -&gt; L -&gt; H -&gt; O
-10. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; K -&gt; H -&gt; O
-11. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; H -&gt; O
-12. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; K -&gt; L -&gt; H -&gt; O
-13. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; L -&gt; H -&gt; O
-14. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; K -&gt; O
-15. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; M -&gt; O
-16. A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O
-Comparing the lengths of all the paths, we can see that the shortest path from node A to node O is:
-A -&gt; B -&gt; F -&gt; G -&gt; J -&gt; N -&gt; O</t>
+1. A -&gt; B -&gt; F -&gt; E -&gt; P
+   Path cost: 1 + 1 + 1 + 1 = 4
+2. A -&gt; B -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P
+   Path cost: 1 + 1 + 1 + 1 + 1 + 1 = 6
+3. A -&gt; B -&gt; F -&gt; I -&gt; H -&gt; D -&gt; C -&gt; P
+   Path cost: 1 + 1 + 1 + 1 + 1 + 1 + 1 = 7
+4. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P
+   Path cost: 1 + 1 + 1 + 1 + 1 = 5
+5. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; D -&gt; C -&gt; P
+   Path cost: 1 + 1 + 1 + 1 + 1 + 1 + 1 = 7
+Therefore, the shortest path from node A to node P is A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
-2. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
-3. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; B -&gt; A
-4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; C -&gt; B -&gt; A
-5. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; C -&gt; B
-6. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D -&gt; C
-7. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H -&gt; D
-8. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H
-9. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K -&gt; L
-10. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J -&gt; K
-11. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I -&gt; J
-12. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M -&gt; I
-13. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N -&gt; M
-14. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O -&gt; N
-15. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P -&gt; O
-16. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
-17. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L
-18. A -&gt; E -&gt; F -&gt; G -&gt; H
-19. A -&gt; E -&gt; F -&gt; G
-20. A -&gt; E -&gt; F
-21. A -&gt; E
-Shortest path from A to P: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node M:
-1. A-&gt;B-&gt;E-&gt;D-&gt;M
-2. A-&gt;B-&gt;C-&gt;F-&gt;I-&gt;M
-3. A-&gt;B-&gt;C-&gt;F-&gt;L-&gt;M
-4. A-&gt;B-&gt;C-&gt;G-&gt;J-&gt;M
-5. A-&gt;B-&gt;C-&gt;G-&gt;H-&gt;L-&gt;M
-6. A-&gt;D-&gt;E-&gt;B-&gt;C-&gt;F-&gt;I-&gt;M
-7. A-&gt;D-&gt;E-&gt;B-&gt;C-&gt;F-&gt;L-&gt;M
-8. A-&gt;D-&gt;E-&gt;B-&gt;C-&gt;G-&gt;J-&gt;M
-9. A-&gt;D-&gt;E-&gt;B-&gt;C-&gt;G-&gt;H-&gt;L-&gt;M
-10. A-&gt;E-&gt;B-&gt;C-&gt;F-&gt;I-&gt;M
-11. A-&gt;E-&gt;B-&gt;C-&gt;F-&gt;L-&gt;M
-12. A-&gt;E-&gt;B-&gt;C-&gt;G-&gt;J-&gt;M
-13. A-&gt;E-&gt;B-&gt;C-&gt;G-&gt;H-&gt;L-&gt;M
-14. A-&gt;E-&gt;D-&gt;M
-Shortest path from node A to node M: A-&gt;D-&gt;E-&gt;B-&gt;C-&gt;G-&gt;H-&gt;L-&gt;M</t>
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P
+2. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
+3. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P
+4. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P
+5. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P
+Comparing the costs:
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P: Cost = 7
+2. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P: Cost = 8
+3. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P: Cost = 8
+4. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; P: Cost = 9
+5. A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P: Cost = 9
+The shortest path from node A to node P is: A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (cost = 5)
+2. A -&gt; B -&gt; F -&gt; I -&gt; H -&gt; P (cost = 4)
+3. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P (cost = 4)
+4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost = 5)
+5. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; P (cost = 4)
+The shortest path from node A to node P is A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P with a cost of 4.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node N:
+1) A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; M -&gt; N
+2) A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; M -&gt; L -&gt; H -&gt; I -&gt; F -&gt; N
+3) A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; M -&gt; L -&gt; H -&gt; I -&gt; N
+4) A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; M -&gt; L -&gt; H -&gt; N
+The shortest path is: A -&gt; B -&gt; C -&gt; G -&gt; J -&gt; M -&gt; L -&gt; H -&gt; I -&gt; N</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 5)
+2. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 5)
+3. A -&gt; E -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P (cost: 6)
+4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; P (cost: 7)
+5. A -&gt; B -&gt; F -&gt; I -&gt; H -&gt; L -&gt; P (cost: 6)
+6. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; L -&gt; P (cost: 7)
+Shortest path: A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P (cost: 5)
+Therefore, the shortest path from node A to node P is A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
     <t>Possible paths from A to P:
-1. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P
-2. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
-Comparing these two paths, we can see that the shortest path from node A to node P is:
-A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; F -&gt; G -&gt; O
-2. A -&gt; B -&gt; C -&gt; G -&gt; O
-3. A -&gt; E -&gt; F -&gt; G -&gt; O
-4. A -&gt; E -&gt; F -&gt; H -&gt; O
-5. A -&gt; E -&gt; J -&gt; K -&gt; O
-6. A -&gt; E -&gt; J -&gt; N -&gt; O
-7. A -&gt; E -&gt; J -&gt; N -&gt; M -&gt; O
-8. A -&gt; E -&gt; J -&gt; K -&gt; L -&gt; O
-The shortest path from node A to node O is A -&gt; E -&gt; J -&gt; K -&gt; O.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P
-2. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; P
-3. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P
-4. A -&gt; D -&gt; G -&gt; H -&gt; P
-Comparing the lengths of these paths, we can conclude that the shortest path from node A to node P is:
-A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P</t>
+1. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (cost: 5)
+2. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (cost: 5)
+3. A -&gt; E -&gt; D -&gt; G -&gt; H -&gt; P (cost: 5)
+4. A -&gt; E -&gt; D -&gt; H -&gt; P (cost: 4)
+5. A -&gt; B -&gt; F -&gt; I -&gt; H -&gt; P (cost: 5)
+6. A -&gt; B -&gt; F -&gt; I -&gt; E -&gt; D -&gt; H -&gt; P (cost: 6)
+7. A -&gt; B -&gt; F -&gt; I -&gt; E -&gt; D -&gt; G -&gt; H -&gt; P (cost: 7)
+8. A -&gt; B -&gt; F -&gt; I -&gt; E -&gt; D -&gt; H -&gt; P (cost: 6)
+9. A -&gt; B -&gt; F -&gt; I -&gt; E -&gt; D -&gt; H -&gt; L -&gt; P (cost: 7)
+10. A -&gt; B -&gt; F -&gt; I -&gt; E -&gt; D -&gt; H -&gt; L -&gt; O -&gt; P (cost: 8)
+The shortest path from node A to node P is A -&gt; E -&gt; D -&gt; H -&gt; P with a cost of 4.</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1284,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1295,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1306,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1317,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1328,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
